--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="460" windowWidth="16800" windowHeight="18760" tabRatio="500"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="18760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Test Case</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>I can add a goal with the "Add goal" form</t>
   </si>
   <si>
@@ -92,20 +89,20 @@
     <t>Forms clear on success</t>
   </si>
   <si>
-    <t>Right now if you submit the default option of "New Status" inside the drop down it works…which is strange b/c if you CURL the same data at heroku the Goals validaiton does work…</t>
-  </si>
-  <si>
     <t>When you sign in any text in the sign up form clears</t>
   </si>
   <si>
     <t>Success?</t>
+  </si>
+  <si>
+    <t>The goal current goals title displays as in the input box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,8 +110,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,12 +128,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,12 +164,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,198 +450,199 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="116.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="5"/>
     <col min="3" max="3" width="47.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A1:C20">
